--- a/company_list.xlsx
+++ b/company_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\dashboard_finance_metrics\assets\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Laptop-ssaa9d9q\d\tao_project\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61F66A5-21CD-4283-967B-35311DBAF59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BFD079-72BF-4FA4-B3DE-3FD07CBA985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33990" yWindow="2715" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B82EAC9A-0CE0-46BB-ACD0-5E3D12938F59}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{B82EAC9A-0CE0-46BB-ACD0-5E3D12938F59}"/>
   </bookViews>
   <sheets>
     <sheet name="sic" sheetId="3" r:id="rId1"/>
@@ -22,19 +22,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sic!$A$1:$C$445</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'sp500'!$A$1:$G$504</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="1906">
   <si>
     <t>symbol</t>
   </si>
@@ -5810,6 +5801,12 @@
   </si>
   <si>
     <t>industry</t>
+  </si>
+  <si>
+    <t>SOUN</t>
+  </si>
+  <si>
+    <t>SOUNDHOUND AI, INC.</t>
   </si>
 </sst>
 </file>
@@ -5974,9 +5971,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -6333,4897 +6329,4897 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1441</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1903</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>100</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>200</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>700</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>800</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>900</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1000</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1040</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>1090</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1220</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>1221</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>1311</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>1381</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>1382</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>1389</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>1400</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>1520</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>1531</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>1540</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>1600</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>1623</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>1700</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>1731</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>2000</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>2011</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>2013</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>2015</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>2020</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>2024</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>2030</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>2033</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>2040</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>2050</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>2052</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>2060</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>2070</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>2080</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>1481</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>2082</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>2086</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>2090</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>2092</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>2100</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>2111</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>2200</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>2211</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>2221</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>2250</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>2253</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>2273</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>2300</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>2320</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>1495</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>2330</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>2340</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>1497</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>2390</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>2400</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>2421</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>2430</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>2451</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>2452</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>2510</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>2511</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>2520</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>2522</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>2531</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>2540</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>2590</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>2600</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>2611</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>2621</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>1513</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>2631</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>2650</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>2670</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>2673</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>2711</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>2721</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>2731</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>2732</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>2741</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>2750</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>2761</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>2771</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>2780</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>2790</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>1527</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>2800</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>2810</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>1529</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>2820</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>2821</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>2833</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>2834</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>2835</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>2836</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>2840</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>2842</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>2844</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>2851</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>2860</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>2870</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>2890</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>2891</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>2911</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>2950</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <v>2990</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="6">
+      <c r="A103" s="5">
         <v>3011</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <v>3021</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <v>3050</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <v>3060</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <v>3080</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>3081</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <v>3086</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>3089</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <v>3100</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>3140</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>3211</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>3220</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <v>3221</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>3231</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>3241</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>3250</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <v>3260</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <v>3270</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <v>3272</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <v>3281</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <v>3290</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <v>3310</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="6">
+      <c r="A125" s="5">
         <v>3312</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="6">
+      <c r="A126" s="5">
         <v>3317</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="6">
+      <c r="A127" s="5">
         <v>3320</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="6">
+      <c r="A128" s="5">
         <v>3330</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="6" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="6">
+      <c r="A129" s="5">
         <v>3334</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="6" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="6">
+      <c r="A130" s="5">
         <v>3341</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="6" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="6">
+      <c r="A131" s="5">
         <v>3350</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="6" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="6">
+      <c r="A132" s="5">
         <v>3357</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="6" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="6">
+      <c r="A133" s="5">
         <v>3360</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="6" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="6">
+      <c r="A134" s="5">
         <v>3390</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="6" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="6">
+      <c r="A135" s="5">
         <v>3411</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="6" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="6">
+      <c r="A136" s="5">
         <v>3412</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="6" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="6">
+      <c r="A137" s="5">
         <v>3420</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="6" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="6">
+      <c r="A138" s="5">
         <v>3430</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="6">
+      <c r="A139" s="5">
         <v>3433</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="6">
+      <c r="A140" s="5">
         <v>3440</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="6">
+      <c r="A141" s="5">
         <v>3442</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="6">
+      <c r="A142" s="5">
         <v>3443</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="6">
+      <c r="A143" s="5">
         <v>3444</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="6" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="6">
+      <c r="A144" s="5">
         <v>3448</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="6" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="6">
+      <c r="A145" s="5">
         <v>3451</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="6" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="6">
+      <c r="A146" s="5">
         <v>3452</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="6">
+      <c r="A147" s="5">
         <v>3460</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="6" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="6">
+      <c r="A148" s="5">
         <v>3470</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="6" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="6">
+      <c r="A149" s="5">
         <v>3480</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="6" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="6">
+      <c r="A150" s="5">
         <v>3490</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="6" t="s">
         <v>1595</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="6">
+      <c r="A151" s="5">
         <v>3510</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="6" t="s">
         <v>1597</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="6">
+      <c r="A152" s="5">
         <v>3523</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="6" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <v>3524</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="6" t="s">
         <v>1599</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="6">
+      <c r="A154" s="5">
         <v>3530</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="6" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="6">
+      <c r="A155" s="5">
         <v>3531</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="6" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="6">
+      <c r="A156" s="5">
         <v>3532</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="6" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="6">
+      <c r="A157" s="5">
         <v>3533</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="6" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <v>3537</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="6" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="6">
+      <c r="A159" s="5">
         <v>3540</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="6" t="s">
         <v>1605</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="6">
+      <c r="A160" s="5">
         <v>3541</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="6" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="6">
+      <c r="A161" s="5">
         <v>3550</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="6" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="6">
+      <c r="A162" s="5">
         <v>3555</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="6" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="6">
+      <c r="A163" s="5">
         <v>3559</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="6" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="6">
+      <c r="A164" s="5">
         <v>3560</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" s="6" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="6">
+      <c r="A165" s="5">
         <v>3561</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" s="6" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="6">
+      <c r="A166" s="5">
         <v>3562</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="6" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="6">
+      <c r="A167" s="5">
         <v>3564</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="6" t="s">
         <v>1613</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="6">
+      <c r="A168" s="5">
         <v>3567</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="6" t="s">
         <v>1614</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="6">
+      <c r="A169" s="5">
         <v>3569</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="6" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="6">
+      <c r="A170" s="5">
         <v>3570</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="6" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="6">
+      <c r="A171" s="5">
         <v>3571</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="6" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="6">
+      <c r="A172" s="5">
         <v>3572</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="6" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="6">
+      <c r="A173" s="5">
         <v>3575</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="6" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="6">
+      <c r="A174" s="5">
         <v>3576</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="6" t="s">
         <v>1620</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="6">
+      <c r="A175" s="5">
         <v>3577</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C175" s="6" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="6">
+      <c r="A176" s="5">
         <v>3578</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="6" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="6">
+      <c r="A177" s="5">
         <v>3579</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="6" t="s">
         <v>1623</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="6">
+      <c r="A178" s="5">
         <v>3580</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" s="6" t="s">
         <v>1624</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="6">
+      <c r="A179" s="5">
         <v>3585</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="6" t="s">
         <v>1625</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="6">
+      <c r="A180" s="5">
         <v>3590</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="6" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="6">
+      <c r="A181" s="5">
         <v>3600</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="6" t="s">
         <v>1627</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="6">
+      <c r="A182" s="5">
         <v>3612</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C182" s="6" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="6">
+      <c r="A183" s="5">
         <v>3613</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C183" s="6" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="6">
+      <c r="A184" s="5">
         <v>3620</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C184" s="6" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="6">
+      <c r="A185" s="5">
         <v>3621</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C185" s="6" t="s">
         <v>1631</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="6">
+      <c r="A186" s="5">
         <v>3630</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C186" s="6" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="6">
+      <c r="A187" s="5">
         <v>3634</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="6" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="6">
+      <c r="A188" s="5">
         <v>3640</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C188" s="6" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="6">
+      <c r="A189" s="5">
         <v>3651</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C189" s="6" t="s">
         <v>1635</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="6">
+      <c r="A190" s="5">
         <v>3652</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C190" s="6" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="6">
+      <c r="A191" s="5">
         <v>3661</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C191" s="6" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="6">
+      <c r="A192" s="5">
         <v>3663</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="6" t="s">
         <v>1638</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="6">
+      <c r="A193" s="5">
         <v>3669</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="6" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="6">
+      <c r="A194" s="5">
         <v>3670</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="6" t="s">
         <v>1640</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="6">
+      <c r="A195" s="5">
         <v>3672</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C195" s="6" t="s">
         <v>1641</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="6">
+      <c r="A196" s="5">
         <v>3674</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="6" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="6">
+      <c r="A197" s="5">
         <v>3677</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="6" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="6">
+      <c r="A198" s="5">
         <v>3678</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C198" s="6" t="s">
         <v>1644</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="6">
+      <c r="A199" s="5">
         <v>3679</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="6" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="6">
+      <c r="A200" s="5">
         <v>3690</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C200" s="6" t="s">
         <v>1646</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="6">
+      <c r="A201" s="5">
         <v>3695</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="6" t="s">
         <v>1647</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="6">
+      <c r="A202" s="5">
         <v>3711</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C202" s="6" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="6">
+      <c r="A203" s="5">
         <v>3713</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="6" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="6">
+      <c r="A204" s="5">
         <v>3714</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C204" s="6" t="s">
         <v>1650</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="6">
+      <c r="A205" s="5">
         <v>3715</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C205" s="6" t="s">
         <v>1651</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="6">
+      <c r="A206" s="5">
         <v>3716</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="6" t="s">
         <v>1652</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="6">
+      <c r="A207" s="5">
         <v>3720</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="6" t="s">
         <v>1653</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="6">
+      <c r="A208" s="5">
         <v>3721</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C208" s="6" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="6">
+      <c r="A209" s="5">
         <v>3724</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="6" t="s">
         <v>1655</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="6">
+      <c r="A210" s="5">
         <v>3728</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C210" s="6" t="s">
         <v>1656</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="6">
+      <c r="A211" s="5">
         <v>3730</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="6" t="s">
         <v>1657</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="6">
+      <c r="A212" s="5">
         <v>3743</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C212" s="6" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="6">
+      <c r="A213" s="5">
         <v>3751</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C213" s="6" t="s">
         <v>1659</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="6">
+      <c r="A214" s="5">
         <v>3760</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C214" s="6" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="6">
+      <c r="A215" s="5">
         <v>3790</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="6" t="s">
         <v>1661</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="6">
+      <c r="A216" s="5">
         <v>3812</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="6" t="s">
         <v>1662</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="6">
+      <c r="A217" s="5">
         <v>3821</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="6" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="6">
+      <c r="A218" s="5">
         <v>3822</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="6" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="6">
+      <c r="A219" s="5">
         <v>3823</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="6" t="s">
         <v>1665</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="6">
+      <c r="A220" s="5">
         <v>3824</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="6" t="s">
         <v>1666</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="6">
+      <c r="A221" s="5">
         <v>3825</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="6" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="6">
+      <c r="A222" s="5">
         <v>3826</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="6" t="s">
         <v>1668</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="6">
+      <c r="A223" s="5">
         <v>3827</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="6" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="6">
+      <c r="A224" s="5">
         <v>3829</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="6" t="s">
         <v>1670</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="6">
+      <c r="A225" s="5">
         <v>3841</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C225" s="6" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="6">
+      <c r="A226" s="5">
         <v>3842</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="6" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="6">
+      <c r="A227" s="5">
         <v>3843</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" s="6" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="6">
+      <c r="A228" s="5">
         <v>3844</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" s="6" t="s">
         <v>1674</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="6">
+      <c r="A229" s="5">
         <v>3845</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="6" t="s">
         <v>1675</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="6">
+      <c r="A230" s="5">
         <v>3851</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="6" t="s">
         <v>1676</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="6">
+      <c r="A231" s="5">
         <v>3861</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="6" t="s">
         <v>1677</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="6">
+      <c r="A232" s="5">
         <v>3873</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="6" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="6">
+      <c r="A233" s="5">
         <v>3910</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="6" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="6">
+      <c r="A234" s="5">
         <v>3911</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="6" t="s">
         <v>1680</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="6">
+      <c r="A235" s="5">
         <v>3931</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="6" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="6">
+      <c r="A236" s="5">
         <v>3942</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C236" s="6" t="s">
         <v>1682</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="6">
+      <c r="A237" s="5">
         <v>3944</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C237" s="6" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="6">
+      <c r="A238" s="5">
         <v>3949</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="6" t="s">
         <v>1684</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="6">
+      <c r="A239" s="5">
         <v>3950</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="6" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="6">
+      <c r="A240" s="5">
         <v>3960</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="6" t="s">
         <v>1686</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="6">
+      <c r="A241" s="5">
         <v>3990</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C241" s="6" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="6">
+      <c r="A242" s="5">
         <v>4011</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="6" t="s">
         <v>1688</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="6">
+      <c r="A243" s="5">
         <v>4013</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C243" s="6" t="s">
         <v>1689</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="6">
+      <c r="A244" s="5">
         <v>4100</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C244" s="6" t="s">
         <v>1690</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="6">
+      <c r="A245" s="5">
         <v>4210</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" s="6" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="6">
+      <c r="A246" s="5">
         <v>4213</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C246" s="6" t="s">
         <v>1692</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="6">
+      <c r="A247" s="5">
         <v>4220</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="6" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="6">
+      <c r="A248" s="5">
         <v>4231</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C248" s="6" t="s">
         <v>1694</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="6">
+      <c r="A249" s="5">
         <v>4400</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C249" s="6" t="s">
         <v>1695</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="6">
+      <c r="A250" s="5">
         <v>4412</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C250" s="6" t="s">
         <v>1696</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="6">
+      <c r="A251" s="5">
         <v>4512</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C251" s="6" t="s">
         <v>1697</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="6">
+      <c r="A252" s="5">
         <v>4513</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C252" s="6" t="s">
         <v>1698</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="6">
+      <c r="A253" s="5">
         <v>4522</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="6" t="s">
         <v>1699</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="6">
+      <c r="A254" s="5">
         <v>4581</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="6" t="s">
         <v>1700</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="6">
+      <c r="A255" s="5">
         <v>4610</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C255" s="6" t="s">
         <v>1701</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="6">
+      <c r="A256" s="5">
         <v>4700</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C256" s="6" t="s">
         <v>1702</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="6">
+      <c r="A257" s="5">
         <v>4731</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C257" s="6" t="s">
         <v>1703</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="6">
+      <c r="A258" s="5">
         <v>4812</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C258" s="6" t="s">
         <v>1704</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="6">
+      <c r="A259" s="5">
         <v>4813</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" s="6" t="s">
         <v>1705</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="6">
+      <c r="A260" s="5">
         <v>4822</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C260" s="6" t="s">
         <v>1706</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="6">
+      <c r="A261" s="5">
         <v>4832</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C261" s="6" t="s">
         <v>1707</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="6">
+      <c r="A262" s="5">
         <v>4833</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C262" s="6" t="s">
         <v>1708</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="6">
+      <c r="A263" s="5">
         <v>4841</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="6" t="s">
         <v>1709</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="6">
+      <c r="A264" s="5">
         <v>4899</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C264" s="6" t="s">
         <v>1710</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="6">
+      <c r="A265" s="5">
         <v>4900</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="6" t="s">
         <v>1711</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="6">
+      <c r="A266" s="5">
         <v>4911</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="6" t="s">
         <v>1712</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="6">
+      <c r="A267" s="5">
         <v>4922</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" s="6" t="s">
         <v>1713</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="6">
+      <c r="A268" s="5">
         <v>4923</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" s="6" t="s">
         <v>1714</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="6">
+      <c r="A269" s="5">
         <v>4924</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" s="6" t="s">
         <v>1715</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="6">
+      <c r="A270" s="5">
         <v>4931</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" s="6" t="s">
         <v>1716</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="6">
+      <c r="A271" s="5">
         <v>4932</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="6" t="s">
         <v>1717</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="6">
+      <c r="A272" s="5">
         <v>4941</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="6" t="s">
         <v>1718</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="6">
+      <c r="A273" s="5">
         <v>4950</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C273" s="6" t="s">
         <v>1719</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="6">
+      <c r="A274" s="5">
         <v>4953</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="6" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="6">
+      <c r="A275" s="5">
         <v>4955</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C275" s="6" t="s">
         <v>1721</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="6">
+      <c r="A276" s="5">
         <v>4961</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C276" s="6" t="s">
         <v>1722</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="6">
+      <c r="A277" s="5">
         <v>4991</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="6" t="s">
         <v>1723</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="6">
+      <c r="A278" s="5">
         <v>5000</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="6" t="s">
         <v>1725</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="6">
+      <c r="A279" s="5">
         <v>5010</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="6" t="s">
         <v>1726</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="6">
+      <c r="A280" s="5">
         <v>5013</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C280" s="6" t="s">
         <v>1727</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="6">
+      <c r="A281" s="5">
         <v>5020</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="6" t="s">
         <v>1728</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="6">
+      <c r="A282" s="5">
         <v>5030</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="6" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="6">
+      <c r="A283" s="5">
         <v>5031</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C283" s="6" t="s">
         <v>1730</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="6">
+      <c r="A284" s="5">
         <v>5040</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="6" t="s">
         <v>1731</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="6">
+      <c r="A285" s="5">
         <v>5045</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C285" s="6" t="s">
         <v>1732</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="6">
+      <c r="A286" s="5">
         <v>5047</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="6" t="s">
         <v>1733</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="6">
+      <c r="A287" s="5">
         <v>5050</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="6" t="s">
         <v>1734</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="6">
+      <c r="A288" s="5">
         <v>5051</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="6" t="s">
         <v>1735</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="6">
+      <c r="A289" s="5">
         <v>5063</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="6" t="s">
         <v>1736</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="6">
+      <c r="A290" s="5">
         <v>5064</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" s="6" t="s">
         <v>1737</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="6">
+      <c r="A291" s="5">
         <v>5065</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="6" t="s">
         <v>1738</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="6">
+      <c r="A292" s="5">
         <v>5070</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C292" s="6" t="s">
         <v>1739</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="6">
+      <c r="A293" s="5">
         <v>5072</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C293" s="6" t="s">
         <v>1740</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="6">
+      <c r="A294" s="5">
         <v>5080</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C294" s="6" t="s">
         <v>1741</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="6">
+      <c r="A295" s="5">
         <v>5082</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="6" t="s">
         <v>1742</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="6">
+      <c r="A296" s="5">
         <v>5084</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="6" t="s">
         <v>1743</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="6">
+      <c r="A297" s="5">
         <v>5090</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="6" t="s">
         <v>1744</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="6">
+      <c r="A298" s="5">
         <v>5094</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="6" t="s">
         <v>1745</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="6">
+      <c r="A299" s="5">
         <v>5099</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="6" t="s">
         <v>1746</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="6">
+      <c r="A300" s="5">
         <v>5110</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="6" t="s">
         <v>1747</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="6">
+      <c r="A301" s="5">
         <v>5122</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="6" t="s">
         <v>1748</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="6">
+      <c r="A302" s="5">
         <v>5130</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C302" s="6" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="6">
+      <c r="A303" s="5">
         <v>5140</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="6" t="s">
         <v>1750</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="6">
+      <c r="A304" s="5">
         <v>5141</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C304" s="6" t="s">
         <v>1751</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="6">
+      <c r="A305" s="5">
         <v>5150</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" s="6" t="s">
         <v>1752</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="6">
+      <c r="A306" s="5">
         <v>5160</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" s="6" t="s">
         <v>1753</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="6">
+      <c r="A307" s="5">
         <v>5171</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="6" t="s">
         <v>1754</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="6">
+      <c r="A308" s="5">
         <v>5172</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C308" s="6" t="s">
         <v>1755</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="6">
+      <c r="A309" s="5">
         <v>5180</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C309" s="6" t="s">
         <v>1756</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="6">
+      <c r="A310" s="5">
         <v>5190</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C310" s="6" t="s">
         <v>1757</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="6">
+      <c r="A311" s="5">
         <v>5200</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="6" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="6">
+      <c r="A312" s="5">
         <v>5211</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C312" s="6" t="s">
         <v>1759</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" s="6">
+      <c r="A313" s="5">
         <v>5271</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="6" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="6">
+      <c r="A314" s="5">
         <v>5311</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="6" t="s">
         <v>1761</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="6">
+      <c r="A315" s="5">
         <v>5331</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C315" s="6" t="s">
         <v>1762</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="6">
+      <c r="A316" s="5">
         <v>5399</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C316" s="6" t="s">
         <v>1763</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" s="6">
+      <c r="A317" s="5">
         <v>5400</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C317" s="6" t="s">
         <v>1764</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="6">
+      <c r="A318" s="5">
         <v>5411</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C318" s="6" t="s">
         <v>1765</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="6">
+      <c r="A319" s="5">
         <v>5412</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C319" s="6" t="s">
         <v>1766</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="6">
+      <c r="A320" s="5">
         <v>5500</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="C320" s="6" t="s">
         <v>1767</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="6">
+      <c r="A321" s="5">
         <v>5531</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="C321" s="6" t="s">
         <v>1768</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="6">
+      <c r="A322" s="5">
         <v>5600</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="C322" s="6" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="6">
+      <c r="A323" s="5">
         <v>5621</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C323" s="6" t="s">
         <v>1770</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="6">
+      <c r="A324" s="5">
         <v>5651</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="C324" s="6" t="s">
         <v>1771</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" s="6">
+      <c r="A325" s="5">
         <v>5661</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="6" t="s">
         <v>1772</v>
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="6">
+      <c r="A326" s="5">
         <v>5700</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C326" s="6" t="s">
         <v>1773</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="6">
+      <c r="A327" s="5">
         <v>5712</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C327" s="6" t="s">
         <v>1774</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="6">
+      <c r="A328" s="5">
         <v>5731</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="C328" s="6" t="s">
         <v>1775</v>
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="6">
+      <c r="A329" s="5">
         <v>5734</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C329" s="6" t="s">
         <v>1776</v>
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="6">
+      <c r="A330" s="5">
         <v>5735</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C330" s="6" t="s">
         <v>1777</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="6">
+      <c r="A331" s="5">
         <v>5810</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="C331" s="6" t="s">
         <v>1778</v>
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="6">
+      <c r="A332" s="5">
         <v>5812</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="C332" s="6" t="s">
         <v>1779</v>
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="6">
+      <c r="A333" s="5">
         <v>5900</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="C333" s="6" t="s">
         <v>1780</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="6">
+      <c r="A334" s="5">
         <v>5912</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="C334" s="6" t="s">
         <v>1781</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="6">
+      <c r="A335" s="5">
         <v>5940</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="C335" s="6" t="s">
         <v>1782</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" s="6">
+      <c r="A336" s="5">
         <v>5944</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="C336" s="6" t="s">
         <v>1783</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" s="6">
+      <c r="A337" s="5">
         <v>5945</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="C337" s="6" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="6">
+      <c r="A338" s="5">
         <v>5960</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C338" s="7" t="s">
+      <c r="C338" s="6" t="s">
         <v>1785</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="6">
+      <c r="A339" s="5">
         <v>5961</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="C339" s="6" t="s">
         <v>1786</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" s="6">
+      <c r="A340" s="5">
         <v>5990</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="C340" s="6" t="s">
         <v>1787</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" s="6">
+      <c r="A341" s="5">
         <v>6021</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="C341" s="6" t="s">
         <v>1789</v>
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" s="6">
+      <c r="A342" s="5">
         <v>6022</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="C342" s="6" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="6">
+      <c r="A343" s="5">
         <v>6029</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="C343" s="6" t="s">
         <v>1791</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" s="6">
+      <c r="A344" s="5">
         <v>6035</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="C344" s="6" t="s">
         <v>1792</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="6">
+      <c r="A345" s="5">
         <v>6036</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="C345" s="6" t="s">
         <v>1793</v>
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" s="6">
+      <c r="A346" s="5">
         <v>6099</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="C346" s="6" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" s="6">
+      <c r="A347" s="5">
         <v>6111</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="C347" s="6" t="s">
         <v>1795</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" s="6">
+      <c r="A348" s="5">
         <v>6141</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C348" s="6" t="s">
         <v>1796</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" s="6">
+      <c r="A349" s="5">
         <v>6153</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C349" s="6" t="s">
         <v>1797</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="6">
+      <c r="A350" s="5">
         <v>6159</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C350" s="6" t="s">
         <v>1798</v>
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="6">
+      <c r="A351" s="5">
         <v>6162</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="C351" s="6" t="s">
         <v>1799</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="6">
+      <c r="A352" s="5">
         <v>6163</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C352" s="6" t="s">
         <v>1800</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="6">
+      <c r="A353" s="5">
         <v>6172</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="C353" s="6" t="s">
         <v>1801</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="6">
+      <c r="A354" s="5">
         <v>6189</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C354" s="6" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" s="6">
+      <c r="A355" s="5">
         <v>6199</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="C355" s="6" t="s">
         <v>1805</v>
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" s="6">
+      <c r="A356" s="5">
         <v>6200</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="C356" s="6" t="s">
         <v>1806</v>
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="6">
+      <c r="A357" s="5">
         <v>6211</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="C357" s="6" t="s">
         <v>1807</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" s="6">
+      <c r="A358" s="5">
         <v>6221</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C358" s="6" t="s">
         <v>1809</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="6">
+      <c r="A359" s="5">
         <v>6282</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="C359" s="6" t="s">
         <v>1810</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="6">
+      <c r="A360" s="5">
         <v>6311</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="C360" s="6" t="s">
         <v>1811</v>
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="6">
+      <c r="A361" s="5">
         <v>6321</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="C361" s="6" t="s">
         <v>1812</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="6">
+      <c r="A362" s="5">
         <v>6324</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C362" s="7" t="s">
+      <c r="C362" s="6" t="s">
         <v>1813</v>
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" s="6">
+      <c r="A363" s="5">
         <v>6331</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C363" s="7" t="s">
+      <c r="C363" s="6" t="s">
         <v>1814</v>
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" s="6">
+      <c r="A364" s="5">
         <v>6351</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C364" s="7" t="s">
+      <c r="C364" s="6" t="s">
         <v>1815</v>
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" s="6">
+      <c r="A365" s="5">
         <v>6361</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C365" s="6" t="s">
         <v>1816</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" s="6">
+      <c r="A366" s="5">
         <v>6399</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C366" s="7" t="s">
+      <c r="C366" s="6" t="s">
         <v>1817</v>
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" s="6">
+      <c r="A367" s="5">
         <v>6411</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C367" s="7" t="s">
+      <c r="C367" s="6" t="s">
         <v>1818</v>
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" s="6">
+      <c r="A368" s="5">
         <v>6500</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C368" s="7" t="s">
+      <c r="C368" s="6" t="s">
         <v>1819</v>
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" s="6">
+      <c r="A369" s="5">
         <v>6510</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C369" s="7" t="s">
+      <c r="C369" s="6" t="s">
         <v>1820</v>
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" s="6">
+      <c r="A370" s="5">
         <v>6512</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C370" s="7" t="s">
+      <c r="C370" s="6" t="s">
         <v>1821</v>
       </c>
     </row>
     <row r="371" spans="1:3">
-      <c r="A371" s="6">
+      <c r="A371" s="5">
         <v>6513</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C371" s="7" t="s">
+      <c r="C371" s="6" t="s">
         <v>1822</v>
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" s="6">
+      <c r="A372" s="5">
         <v>6519</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C372" s="7" t="s">
+      <c r="C372" s="6" t="s">
         <v>1823</v>
       </c>
     </row>
     <row r="373" spans="1:3">
-      <c r="A373" s="6">
+      <c r="A373" s="5">
         <v>6531</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C373" s="7" t="s">
+      <c r="C373" s="6" t="s">
         <v>1824</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" s="6">
+      <c r="A374" s="5">
         <v>6532</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="C374" s="6" t="s">
         <v>1825</v>
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" s="6">
+      <c r="A375" s="5">
         <v>6552</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C375" s="6" t="s">
         <v>1826</v>
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" s="6">
+      <c r="A376" s="5">
         <v>6770</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C376" s="6" t="s">
         <v>1827</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" s="6">
+      <c r="A377" s="5">
         <v>6792</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C377" s="6" t="s">
         <v>1828</v>
       </c>
     </row>
     <row r="378" spans="1:3">
-      <c r="A378" s="6">
+      <c r="A378" s="5">
         <v>6794</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C378" s="6" t="s">
         <v>1829</v>
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="A379" s="6">
+      <c r="A379" s="5">
         <v>6795</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C379" s="6" t="s">
         <v>1830</v>
       </c>
     </row>
     <row r="380" spans="1:3">
-      <c r="A380" s="6">
+      <c r="A380" s="5">
         <v>6798</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C380" s="7" t="s">
+      <c r="C380" s="6" t="s">
         <v>1831</v>
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" s="6">
+      <c r="A381" s="5">
         <v>6799</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C381" s="6" t="s">
         <v>1832</v>
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="6">
+      <c r="A382" s="5">
         <v>7000</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C382" s="6" t="s">
         <v>1833</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="6">
+      <c r="A383" s="5">
         <v>7011</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C383" s="6" t="s">
         <v>1834</v>
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" s="6">
+      <c r="A384" s="5">
         <v>7200</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C384" s="6" t="s">
         <v>1835</v>
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" s="6">
+      <c r="A385" s="5">
         <v>7310</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C385" s="7" t="s">
+      <c r="C385" s="6" t="s">
         <v>1836</v>
       </c>
     </row>
     <row r="386" spans="1:3">
-      <c r="A386" s="6">
+      <c r="A386" s="5">
         <v>7311</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C386" s="7" t="s">
+      <c r="C386" s="6" t="s">
         <v>1837</v>
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" s="6">
+      <c r="A387" s="5">
         <v>7320</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C387" s="7" t="s">
+      <c r="C387" s="6" t="s">
         <v>1838</v>
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="A388" s="6">
+      <c r="A388" s="5">
         <v>7330</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C388" s="6" t="s">
         <v>1839</v>
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389" s="6">
+      <c r="A389" s="5">
         <v>7331</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="C389" s="6" t="s">
         <v>1840</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="6">
+      <c r="A390" s="5">
         <v>7340</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="C390" s="6" t="s">
         <v>1841</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="6">
+      <c r="A391" s="5">
         <v>7350</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="C391" s="6" t="s">
         <v>1842</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" s="6">
+      <c r="A392" s="5">
         <v>7359</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C392" s="7" t="s">
+      <c r="C392" s="6" t="s">
         <v>1843</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="6">
+      <c r="A393" s="5">
         <v>7361</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C393" s="7" t="s">
+      <c r="C393" s="6" t="s">
         <v>1844</v>
       </c>
     </row>
     <row r="394" spans="1:3">
-      <c r="A394" s="6">
+      <c r="A394" s="5">
         <v>7363</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C394" s="7" t="s">
+      <c r="C394" s="6" t="s">
         <v>1845</v>
       </c>
     </row>
     <row r="395" spans="1:3">
-      <c r="A395" s="6">
+      <c r="A395" s="5">
         <v>7370</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C395" s="6" t="s">
         <v>1846</v>
       </c>
     </row>
     <row r="396" spans="1:3">
-      <c r="A396" s="6">
+      <c r="A396" s="5">
         <v>7371</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C396" s="6" t="s">
         <v>1847</v>
       </c>
     </row>
     <row r="397" spans="1:3">
-      <c r="A397" s="6">
+      <c r="A397" s="5">
         <v>7372</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C397" s="6" t="s">
         <v>1848</v>
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="A398" s="6">
+      <c r="A398" s="5">
         <v>7373</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C398" s="7" t="s">
+      <c r="C398" s="6" t="s">
         <v>1849</v>
       </c>
     </row>
     <row r="399" spans="1:3">
-      <c r="A399" s="6">
+      <c r="A399" s="5">
         <v>7374</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C399" s="7" t="s">
+      <c r="C399" s="6" t="s">
         <v>1850</v>
       </c>
     </row>
     <row r="400" spans="1:3">
-      <c r="A400" s="6">
+      <c r="A400" s="5">
         <v>7377</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C400" s="7" t="s">
+      <c r="C400" s="6" t="s">
         <v>1851</v>
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" s="6">
+      <c r="A401" s="5">
         <v>7380</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="C401" s="6" t="s">
         <v>1852</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="6">
+      <c r="A402" s="5">
         <v>7381</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C402" s="6" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403" s="6">
+      <c r="A403" s="5">
         <v>7384</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C403" s="6" t="s">
         <v>1854</v>
       </c>
     </row>
     <row r="404" spans="1:3">
-      <c r="A404" s="6">
+      <c r="A404" s="5">
         <v>7385</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="C404" s="6" t="s">
         <v>1855</v>
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405" s="6">
+      <c r="A405" s="5">
         <v>7389</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C405" s="6" t="s">
         <v>1856</v>
       </c>
     </row>
     <row r="406" spans="1:3">
-      <c r="A406" s="6">
+      <c r="A406" s="5">
         <v>7500</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C406" s="7" t="s">
+      <c r="C406" s="6" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="407" spans="1:3">
-      <c r="A407" s="6">
+      <c r="A407" s="5">
         <v>7510</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C407" s="7" t="s">
+      <c r="C407" s="6" t="s">
         <v>1858</v>
       </c>
     </row>
     <row r="408" spans="1:3">
-      <c r="A408" s="6">
+      <c r="A408" s="5">
         <v>7600</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C408" s="7" t="s">
+      <c r="C408" s="6" t="s">
         <v>1859</v>
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" s="6">
+      <c r="A409" s="5">
         <v>7812</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C409" s="7" t="s">
+      <c r="C409" s="6" t="s">
         <v>1860</v>
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410" s="6">
+      <c r="A410" s="5">
         <v>7819</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C410" s="6" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411" s="6">
+      <c r="A411" s="5">
         <v>7822</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C411" s="7" t="s">
+      <c r="C411" s="6" t="s">
         <v>1862</v>
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412" s="6">
+      <c r="A412" s="5">
         <v>7829</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C412" s="7" t="s">
+      <c r="C412" s="6" t="s">
         <v>1863</v>
       </c>
     </row>
     <row r="413" spans="1:3">
-      <c r="A413" s="6">
+      <c r="A413" s="5">
         <v>7830</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C413" s="7" t="s">
+      <c r="C413" s="6" t="s">
         <v>1864</v>
       </c>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414" s="6">
+      <c r="A414" s="5">
         <v>7841</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C414" s="7" t="s">
+      <c r="C414" s="6" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415" s="6">
+      <c r="A415" s="5">
         <v>7900</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C415" s="7" t="s">
+      <c r="C415" s="6" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416" s="6">
+      <c r="A416" s="5">
         <v>7948</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C416" s="6" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="A417" s="6">
+      <c r="A417" s="5">
         <v>7990</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C417" s="7" t="s">
+      <c r="C417" s="6" t="s">
         <v>1868</v>
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418" s="6">
+      <c r="A418" s="5">
         <v>7997</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C418" s="7" t="s">
+      <c r="C418" s="6" t="s">
         <v>1869</v>
       </c>
     </row>
     <row r="419" spans="1:3">
-      <c r="A419" s="6">
+      <c r="A419" s="5">
         <v>8000</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C419" s="7" t="s">
+      <c r="C419" s="6" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="420" spans="1:3">
-      <c r="A420" s="6">
+      <c r="A420" s="5">
         <v>8011</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C420" s="7" t="s">
+      <c r="C420" s="6" t="s">
         <v>1871</v>
       </c>
     </row>
     <row r="421" spans="1:3">
-      <c r="A421" s="6">
+      <c r="A421" s="5">
         <v>8050</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C421" s="7" t="s">
+      <c r="C421" s="6" t="s">
         <v>1872</v>
       </c>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422" s="6">
+      <c r="A422" s="5">
         <v>8051</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C422" s="7" t="s">
+      <c r="C422" s="6" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="A423" s="6">
+      <c r="A423" s="5">
         <v>8060</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C423" s="7" t="s">
+      <c r="C423" s="6" t="s">
         <v>1874</v>
       </c>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424" s="6">
+      <c r="A424" s="5">
         <v>8062</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C424" s="7" t="s">
+      <c r="C424" s="6" t="s">
         <v>1875</v>
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="6">
+      <c r="A425" s="5">
         <v>8071</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C425" s="7" t="s">
+      <c r="C425" s="6" t="s">
         <v>1876</v>
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="A426" s="6">
+      <c r="A426" s="5">
         <v>8082</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C426" s="6" t="s">
         <v>1877</v>
       </c>
     </row>
     <row r="427" spans="1:3">
-      <c r="A427" s="6">
+      <c r="A427" s="5">
         <v>8090</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C427" s="7" t="s">
+      <c r="C427" s="6" t="s">
         <v>1878</v>
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" s="6">
+      <c r="A428" s="5">
         <v>8093</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C428" s="7" t="s">
+      <c r="C428" s="6" t="s">
         <v>1879</v>
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" s="6">
+      <c r="A429" s="5">
         <v>8111</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C429" s="7" t="s">
+      <c r="C429" s="6" t="s">
         <v>1880</v>
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430" s="6">
+      <c r="A430" s="5">
         <v>8200</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C430" s="7" t="s">
+      <c r="C430" s="6" t="s">
         <v>1881</v>
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" s="6">
+      <c r="A431" s="5">
         <v>8300</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C431" s="7" t="s">
+      <c r="C431" s="6" t="s">
         <v>1882</v>
       </c>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432" s="6">
+      <c r="A432" s="5">
         <v>8351</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C432" s="7" t="s">
+      <c r="C432" s="6" t="s">
         <v>1883</v>
       </c>
     </row>
     <row r="433" spans="1:3">
-      <c r="A433" s="6">
+      <c r="A433" s="5">
         <v>8600</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C433" s="7" t="s">
+      <c r="C433" s="6" t="s">
         <v>1884</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" s="6">
+      <c r="A434" s="5">
         <v>8700</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C434" s="7" t="s">
+      <c r="C434" s="6" t="s">
         <v>1885</v>
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435" s="6">
+      <c r="A435" s="5">
         <v>8711</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C435" s="7" t="s">
+      <c r="C435" s="6" t="s">
         <v>1886</v>
       </c>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" s="6">
+      <c r="A436" s="5">
         <v>8731</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C436" s="7" t="s">
+      <c r="C436" s="6" t="s">
         <v>1887</v>
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="A437" s="6">
+      <c r="A437" s="5">
         <v>8734</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="C437" s="7" t="s">
+      <c r="C437" s="6" t="s">
         <v>1888</v>
       </c>
     </row>
     <row r="438" spans="1:3">
-      <c r="A438" s="6">
+      <c r="A438" s="5">
         <v>8741</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C438" s="7" t="s">
+      <c r="C438" s="6" t="s">
         <v>1889</v>
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="A439" s="6">
+      <c r="A439" s="5">
         <v>8742</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C439" s="7" t="s">
+      <c r="C439" s="6" t="s">
         <v>1890</v>
       </c>
     </row>
     <row r="440" spans="1:3">
-      <c r="A440" s="6">
+      <c r="A440" s="5">
         <v>8744</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C440" s="7" t="s">
+      <c r="C440" s="6" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" s="6">
+      <c r="A441" s="5">
         <v>8880</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="C441" s="7" t="s">
+      <c r="C441" s="6" t="s">
         <v>1893</v>
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" s="6">
+      <c r="A442" s="5">
         <v>8888</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="C442" s="7" t="s">
+      <c r="C442" s="6" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="443" spans="1:3">
-      <c r="A443" s="6">
+      <c r="A443" s="5">
         <v>8900</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C443" s="7" t="s">
+      <c r="C443" s="6" t="s">
         <v>1895</v>
       </c>
     </row>
     <row r="444" spans="1:3">
-      <c r="A444" s="6">
+      <c r="A444" s="5">
         <v>9721</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="C444" s="7" t="s">
+      <c r="C444" s="6" t="s">
         <v>1896</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A445" s="8">
+      <c r="A445" s="7">
         <v>9995</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="8" t="s">
         <v>1459</v>
       </c>
-      <c r="C445" s="10" t="s">
+      <c r="C445" s="9" t="s">
         <v>1897</v>
       </c>
     </row>
@@ -11252,25 +11248,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1898</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>1899</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>1900</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>1901</v>
       </c>
     </row>
@@ -22852,9 +22848,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17146AA1-C78E-482C-A866-46B8415D9924}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23023,7 +23021,7 @@
       <c r="B15" t="s">
         <v>1433</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -23069,6 +23067,17 @@
       </c>
       <c r="C19" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1840856</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1905</v>
       </c>
     </row>
   </sheetData>

--- a/company_list.xlsx
+++ b/company_list.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Laptop-ssaa9d9q\d\tao_project\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BFD079-72BF-4FA4-B3DE-3FD07CBA985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E3E2E-1655-4F29-BC0E-981936AA1E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{B82EAC9A-0CE0-46BB-ACD0-5E3D12938F59}"/>
+    <workbookView xWindow="31725" yWindow="0" windowWidth="24780" windowHeight="15735" activeTab="2" xr2:uid="{B82EAC9A-0CE0-46BB-ACD0-5E3D12938F59}"/>
   </bookViews>
   <sheets>
     <sheet name="sic" sheetId="3" r:id="rId1"/>
     <sheet name="sp500" sheetId="1" r:id="rId2"/>
     <sheet name="pick" sheetId="2" r:id="rId3"/>
+    <sheet name="checked_pick" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pick!$A$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pick!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sic!$A$1:$C$445</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'sp500'!$A$1:$G$504</definedName>
   </definedNames>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="1982">
   <si>
     <t>symbol</t>
   </si>
@@ -5807,6 +5808,234 @@
   </si>
   <si>
     <t>SOUNDHOUND AI, INC.</t>
+  </si>
+  <si>
+    <t>GENERAL ELECTRIC CO</t>
+  </si>
+  <si>
+    <t>BOEING CO</t>
+  </si>
+  <si>
+    <t>Uber Technologies, Inc</t>
+  </si>
+  <si>
+    <t>GWH</t>
+  </si>
+  <si>
+    <t>ESS Tech, Inc.</t>
+  </si>
+  <si>
+    <t>ALBEMARLE CORP</t>
+  </si>
+  <si>
+    <t>RIVN</t>
+  </si>
+  <si>
+    <t>Rivian Automotive, Inc.</t>
+  </si>
+  <si>
+    <t>FIRST SOLAR, INC.</t>
+  </si>
+  <si>
+    <t>EXXON MOBIL CORP</t>
+  </si>
+  <si>
+    <t>CHEVRON CORP</t>
+  </si>
+  <si>
+    <t>LCID</t>
+  </si>
+  <si>
+    <t>Lucid Group, Inc.</t>
+  </si>
+  <si>
+    <t>MCDONALDS CORP</t>
+  </si>
+  <si>
+    <t>FEDEX CORP</t>
+  </si>
+  <si>
+    <t>Affirm Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>AFRM</t>
+  </si>
+  <si>
+    <t>HOME DEPOT, INC.</t>
+  </si>
+  <si>
+    <t>AMAZON COM INC</t>
+  </si>
+  <si>
+    <t>3M CO</t>
+  </si>
+  <si>
+    <t>Salesforce, Inc.</t>
+  </si>
+  <si>
+    <t>MICROSOFT CORP</t>
+  </si>
+  <si>
+    <t>ADOBE INC.</t>
+  </si>
+  <si>
+    <t>COSTCO WHOLESALE CORP</t>
+  </si>
+  <si>
+    <t>Walt Disney Co</t>
+  </si>
+  <si>
+    <t>CATERPILLAR INC</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>Atlassian Corp</t>
+  </si>
+  <si>
+    <t>QUALCOMM INC</t>
+  </si>
+  <si>
+    <t>Walmart Inc.</t>
+  </si>
+  <si>
+    <t>VISA INC.</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Block, Inc.</t>
+  </si>
+  <si>
+    <t>EOG RESOURCES INC</t>
+  </si>
+  <si>
+    <t>Marathon Petroleum Corp</t>
+  </si>
+  <si>
+    <t>PIONEER NATURAL RESOURCES CO</t>
+  </si>
+  <si>
+    <t>HORTON D R INC</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>Cheniere Energy, Inc.</t>
+  </si>
+  <si>
+    <t>CQP</t>
+  </si>
+  <si>
+    <t>Cheniere Energy Partners, L.P.</t>
+  </si>
+  <si>
+    <t>FCNCA</t>
+  </si>
+  <si>
+    <t>FIRST CITIZENS BANCSHARES INC</t>
+  </si>
+  <si>
+    <t>STEEL DYNAMICS INC</t>
+  </si>
+  <si>
+    <t>CF Industries Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>ATKR</t>
+  </si>
+  <si>
+    <t>Atkore Inc.</t>
+  </si>
+  <si>
+    <t>PBF</t>
+  </si>
+  <si>
+    <t>PBF Energy Inc.</t>
+  </si>
+  <si>
+    <t>LNTH</t>
+  </si>
+  <si>
+    <t>Lantheus Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>WIRE</t>
+  </si>
+  <si>
+    <t>ENCORE WIRE CORP</t>
+  </si>
+  <si>
+    <t>ACLS</t>
+  </si>
+  <si>
+    <t>AXCELIS TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>CNX</t>
+  </si>
+  <si>
+    <t>CNX Resources Corp</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Axos Financial, Inc.</t>
+  </si>
+  <si>
+    <t>CALM</t>
+  </si>
+  <si>
+    <t>CAL-MAINE FOODS INC</t>
+  </si>
+  <si>
+    <t>GRBK</t>
+  </si>
+  <si>
+    <t>Green Brick Partners, Inc.</t>
+  </si>
+  <si>
+    <t>TGLS</t>
+  </si>
+  <si>
+    <t>Tecnoglass Inc.</t>
+  </si>
+  <si>
+    <t>CEIX</t>
+  </si>
+  <si>
+    <t>CONSOL Energy Inc.</t>
+  </si>
+  <si>
+    <t>PARR</t>
+  </si>
+  <si>
+    <t>PAR PACIFIC HOLDINGS, INC.</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>3D SYSTEMS CORP</t>
+  </si>
+  <si>
+    <t>PLUG</t>
+  </si>
+  <si>
+    <t>PLUG POWER INC</t>
+  </si>
+  <si>
+    <t>Enphase Energy, Inc.</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>Palantir Technologies Inc.</t>
   </si>
 </sst>
 </file>
@@ -11234,7 +11463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB4D047-C06A-42FE-BFF0-99FF6773CE7A}">
   <dimension ref="A1:G504"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22848,10 +23079,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17146AA1-C78E-482C-A866-46B8415D9924}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22873,219 +23107,827 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2488</v>
+        <v>821189</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4127</v>
+        <v>1510295</v>
       </c>
       <c r="B3" t="s">
-        <v>1218</v>
+        <v>916</v>
       </c>
       <c r="C3" t="s">
-        <v>1219</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>6281</v>
+        <v>1038357</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>1116</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>6951</v>
+        <v>882184</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>516</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>50863</v>
+        <v>3570</v>
       </c>
       <c r="B6" t="s">
-        <v>777</v>
+        <v>1943</v>
       </c>
       <c r="C6" t="s">
-        <v>778</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>97476</v>
+        <v>1383650</v>
       </c>
       <c r="B7" t="s">
-        <v>1277</v>
+        <v>1945</v>
       </c>
       <c r="C7" t="s">
-        <v>1278</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>103730</v>
+        <v>798941</v>
       </c>
       <c r="B8" t="s">
-        <v>1436</v>
+        <v>1947</v>
       </c>
       <c r="C8" t="s">
-        <v>1438</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>106040</v>
+        <v>1022671</v>
       </c>
       <c r="B9" t="s">
-        <v>1396</v>
+        <v>1237</v>
       </c>
       <c r="C9" t="s">
-        <v>1397</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>319201</v>
+        <v>1324404</v>
       </c>
       <c r="B10" t="s">
-        <v>855</v>
+        <v>348</v>
       </c>
       <c r="C10" t="s">
-        <v>856</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>707549</v>
+        <v>1666138</v>
       </c>
       <c r="B11" t="s">
-        <v>873</v>
+        <v>1951</v>
       </c>
       <c r="C11" t="s">
-        <v>874</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>723125</v>
+        <v>1534504</v>
       </c>
       <c r="B12" t="s">
-        <v>964</v>
+        <v>1953</v>
       </c>
       <c r="C12" t="s">
-        <v>965</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>827054</v>
+        <v>1521036</v>
       </c>
       <c r="B13" t="s">
-        <v>961</v>
+        <v>1955</v>
       </c>
       <c r="C13" t="s">
-        <v>962</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1045810</v>
+        <v>850460</v>
       </c>
       <c r="B14" t="s">
-        <v>1051</v>
+        <v>1957</v>
       </c>
       <c r="C14" t="s">
-        <v>1052</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1047127</v>
+        <v>1113232</v>
       </c>
       <c r="B15" t="s">
-        <v>1433</v>
+        <v>1959</v>
       </c>
       <c r="C15" t="s">
-        <v>1437</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1097864</v>
+        <v>1070412</v>
       </c>
       <c r="B16" t="s">
-        <v>1068</v>
+        <v>1961</v>
       </c>
       <c r="C16" t="s">
-        <v>1069</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1101302</v>
+        <v>1299709</v>
       </c>
       <c r="B17" t="s">
-        <v>1435</v>
+        <v>1963</v>
       </c>
       <c r="C17" t="s">
-        <v>1434</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1375365</v>
+        <v>16160</v>
       </c>
       <c r="B18" t="s">
-        <v>1440</v>
+        <v>1965</v>
       </c>
       <c r="C18" t="s">
-        <v>1439</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1730168</v>
+        <v>1373670</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>1967</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
+        <v>1534675</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1710366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>821483</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>910638</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1093691</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1463101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>556</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1321655</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1045810</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1047127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1097864</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1101302</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1375365</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1730168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>1840856</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B33" t="s">
         <v>1904</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C33" t="s">
         <v>1905</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>40545</v>
+      </c>
+      <c r="B34" t="s">
+        <v>678</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>12927</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>1543151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2488</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>4127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>6281</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>6951</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>50863</v>
+      </c>
+      <c r="B41" t="s">
+        <v>777</v>
+      </c>
+      <c r="C41" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>97476</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>103730</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>106040</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>319201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>855</v>
+      </c>
+      <c r="C45" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>707549</v>
+      </c>
+      <c r="B46" t="s">
+        <v>873</v>
+      </c>
+      <c r="C46" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>723125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>964</v>
+      </c>
+      <c r="C47" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>827054</v>
+      </c>
+      <c r="B48" t="s">
+        <v>961</v>
+      </c>
+      <c r="C48" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1819438</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>915913</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>1874178</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>1274494</v>
+      </c>
+      <c r="B52" t="s">
+        <v>628</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1318605</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>34088</v>
+      </c>
+      <c r="B54" t="s">
+        <v>603</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>93410</v>
+      </c>
+      <c r="B55" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1811210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>63908</v>
+      </c>
+      <c r="B57" t="s">
+        <v>942</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>1048911</v>
+      </c>
+      <c r="B58" t="s">
+        <v>620</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>1820953</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>354950</v>
+      </c>
+      <c r="B60" t="s">
+        <v>728</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>1018724</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>66740</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1108524</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>789019</v>
+      </c>
+      <c r="B64" t="s">
+        <v>967</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>796343</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>909832</v>
+      </c>
+      <c r="B66" t="s">
+        <v>445</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>1744489</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>18230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1650372</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>804328</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>104169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1403161</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>1512673</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1938</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C19" xr:uid="{17146AA1-C78E-482C-A866-46B8415D9924}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
-      <sortCondition ref="A1:A19"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:C1" xr:uid="{17146AA1-C78E-482C-A866-46B8415D9924}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2DD92A-2E90-4DD2-A757-3ED9B36B3509}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/company_list.xlsx
+++ b/company_list.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E3E2E-1655-4F29-BC0E-981936AA1E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C51A58-7FE3-4760-B501-FCD6858D78E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31725" yWindow="0" windowWidth="24780" windowHeight="15735" activeTab="2" xr2:uid="{B82EAC9A-0CE0-46BB-ACD0-5E3D12938F59}"/>
+    <workbookView xWindow="32490" yWindow="1020" windowWidth="21600" windowHeight="11385" xr2:uid="{B82EAC9A-0CE0-46BB-ACD0-5E3D12938F59}"/>
   </bookViews>
   <sheets>
     <sheet name="sic" sheetId="3" r:id="rId1"/>
     <sheet name="sp500" sheetId="1" r:id="rId2"/>
     <sheet name="pick" sheetId="2" r:id="rId3"/>
-    <sheet name="checked_pick" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pick!$A$1:$C$1</definedName>
@@ -90,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="1982">
   <si>
     <t>symbol</t>
   </si>
@@ -6544,10 +6543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D46672-D027-46D5-9826-3A1061371C59}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:C445"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11461,9 +11463,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB4D047-C06A-42FE-BFF0-99FF6773CE7A}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:G504"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A469" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -23079,13 +23084,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17146AA1-C78E-482C-A866-46B8415D9924}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23901,33 +23909,4 @@
   <autoFilter ref="A1:C1" xr:uid="{17146AA1-C78E-482C-A866-46B8415D9924}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2DD92A-2E90-4DD2-A757-3ED9B36B3509}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>